--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H2">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>5.664964857904444</v>
+        <v>9.379971107065556</v>
       </c>
       <c r="R2">
-        <v>50.98468372113999</v>
+        <v>84.41973996359002</v>
       </c>
       <c r="S2">
-        <v>0.01670543699739355</v>
+        <v>0.03129244025978011</v>
       </c>
       <c r="T2">
-        <v>0.01670543699739355</v>
+        <v>0.03129244025978011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H3">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>6.228427695562223</v>
+        <v>10.86704352484222</v>
       </c>
       <c r="R3">
-        <v>56.05584926006</v>
+        <v>97.80339172358002</v>
       </c>
       <c r="S3">
-        <v>0.01836703476030476</v>
+        <v>0.03625344965566096</v>
       </c>
       <c r="T3">
-        <v>0.01836703476030475</v>
+        <v>0.03625344965566096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H4">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>3.452306695911667</v>
+        <v>8.24854829384889</v>
       </c>
       <c r="R4">
-        <v>31.070760263205</v>
+        <v>74.23693464464</v>
       </c>
       <c r="S4">
-        <v>0.01018052070062904</v>
+        <v>0.02751791042519824</v>
       </c>
       <c r="T4">
-        <v>0.01018052070062904</v>
+        <v>0.02751791042519824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H5">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I5">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J5">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>2.512419447127778</v>
+        <v>4.233588664221666</v>
       </c>
       <c r="R5">
-        <v>22.61177502415</v>
+        <v>38.102297977995</v>
       </c>
       <c r="S5">
-        <v>0.007408883521396665</v>
+        <v>0.01412363842569274</v>
       </c>
       <c r="T5">
-        <v>0.007408883521396665</v>
+        <v>0.01412363842569274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
         <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>73.51271290320756</v>
+        <v>69.76438199437845</v>
       </c>
       <c r="R6">
-        <v>661.614416128868</v>
+        <v>627.8794379494061</v>
       </c>
       <c r="S6">
-        <v>0.2167819262282754</v>
+        <v>0.2327403497197477</v>
       </c>
       <c r="T6">
-        <v>0.2167819262282754</v>
+        <v>0.2327403497197477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H7">
         <v>1.436459</v>
       </c>
       <c r="I7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
-        <v>80.8246173642858</v>
+        <v>80.82461736428579</v>
       </c>
       <c r="R7">
-        <v>727.4215562785722</v>
+        <v>727.4215562785721</v>
       </c>
       <c r="S7">
-        <v>0.2383440298545789</v>
+        <v>0.2696383050142185</v>
       </c>
       <c r="T7">
-        <v>0.2383440298545789</v>
+        <v>0.2696383050142184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H8">
         <v>1.436459</v>
       </c>
       <c r="I8">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J8">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>44.79964789830234</v>
+        <v>61.34932266877512</v>
       </c>
       <c r="R8">
-        <v>403.1968310847211</v>
+        <v>552.1439040189759</v>
       </c>
       <c r="S8">
-        <v>0.1321098566792077</v>
+        <v>0.2046669432856284</v>
       </c>
       <c r="T8">
-        <v>0.1321098566792077</v>
+        <v>0.2046669432856283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H9">
         <v>1.436459</v>
       </c>
       <c r="I9">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J9">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>32.60298592169223</v>
+        <v>31.48769792642033</v>
       </c>
       <c r="R9">
-        <v>293.4268732952301</v>
+        <v>283.389281337783</v>
       </c>
       <c r="S9">
-        <v>0.096143072535001</v>
+        <v>0.1050458359662007</v>
       </c>
       <c r="T9">
-        <v>0.096143072535001</v>
+        <v>0.1050458359662007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H10">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I10">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J10">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>22.04026749399955</v>
+        <v>6.189513334184667</v>
       </c>
       <c r="R10">
-        <v>198.362407445996</v>
+        <v>55.70562000766201</v>
       </c>
       <c r="S10">
-        <v>0.06499463090454377</v>
+        <v>0.02064878175383621</v>
       </c>
       <c r="T10">
-        <v>0.06499463090454378</v>
+        <v>0.02064878175383621</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H11">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I11">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J11">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>24.23249144885378</v>
+        <v>7.170780168982668</v>
       </c>
       <c r="R11">
-        <v>218.092423039684</v>
+        <v>64.53702152084401</v>
       </c>
       <c r="S11">
-        <v>0.07145928868805937</v>
+        <v>0.02392237753108655</v>
       </c>
       <c r="T11">
-        <v>0.07145928868805936</v>
+        <v>0.02392237753108655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H12">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I12">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J12">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>13.43163902297633</v>
+        <v>5.442927176394667</v>
       </c>
       <c r="R12">
-        <v>120.884751206787</v>
+        <v>48.986344587552</v>
       </c>
       <c r="S12">
-        <v>0.03960861278017988</v>
+        <v>0.0181581021478165</v>
       </c>
       <c r="T12">
-        <v>0.03960861278017988</v>
+        <v>0.0181581021478165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H13">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I13">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J13">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>9.774887940312224</v>
+        <v>2.793596396999</v>
       </c>
       <c r="R13">
-        <v>87.97399146281002</v>
+        <v>25.142367572991</v>
       </c>
       <c r="S13">
-        <v>0.02882520522887634</v>
+        <v>0.009319692711758925</v>
       </c>
       <c r="T13">
-        <v>0.02882520522887634</v>
+        <v>0.009319692711758925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H14">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I14">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J14">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>6.354463674748444</v>
+        <v>0.5731867295186667</v>
       </c>
       <c r="R14">
-        <v>57.19017307273599</v>
+        <v>5.158680565668001</v>
       </c>
       <c r="S14">
-        <v>0.01873870275163614</v>
+        <v>0.001912203277220208</v>
       </c>
       <c r="T14">
-        <v>0.01873870275163614</v>
+        <v>0.001912203277220208</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H15">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I15">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J15">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>6.986507160238223</v>
+        <v>0.6640580302906668</v>
       </c>
       <c r="R15">
-        <v>62.87856444214401</v>
+        <v>5.976522272616001</v>
       </c>
       <c r="S15">
-        <v>0.020602538254822</v>
+        <v>0.002215358235618146</v>
       </c>
       <c r="T15">
-        <v>0.020602538254822</v>
+        <v>0.002215358235618146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H16">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I16">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J16">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>3.872496660354667</v>
+        <v>0.5040482924586667</v>
       </c>
       <c r="R16">
-        <v>34.852469943192</v>
+        <v>4.536434632128</v>
       </c>
       <c r="S16">
-        <v>0.01141962052807902</v>
+        <v>0.001681551136967352</v>
       </c>
       <c r="T16">
-        <v>0.01141962052807902</v>
+        <v>0.001681551136967352</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H17">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I17">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J17">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>2.818213089217778</v>
+        <v>0.258704084786</v>
       </c>
       <c r="R17">
-        <v>25.36391780296</v>
+        <v>2.328336763074</v>
       </c>
       <c r="S17">
-        <v>0.008310639587016408</v>
+        <v>0.0008630604535688805</v>
       </c>
       <c r="T17">
-        <v>0.008310639587016408</v>
+        <v>0.0008630604535688804</v>
       </c>
     </row>
   </sheetData>
